--- a/Praktikum/234 - Lichtquellen/Auswetung.xlsx
+++ b/Praktikum/234 - Lichtquellen/Auswetung.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Peakpos. [nm]</t>
   </si>
@@ -130,11 +131,65 @@
   <si>
     <t>0,8792±0,0009</t>
   </si>
+  <si>
+    <t>Linie</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>λ_lit [nm]</t>
+  </si>
+  <si>
+    <t>Δλ_exp [nm]</t>
+  </si>
+  <si>
+    <t>n.z.</t>
+  </si>
+  <si>
+    <t>Δλ [nm]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -319,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -339,6 +394,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -621,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -713,7 +775,7 @@
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="4">
-        <f t="shared" ref="M4:M8" si="1">(I4-K4)/(L4+J4)^2</f>
+        <f t="shared" ref="M4" si="1">(I4-K4)/(L4+J4)^2</f>
         <v>4.4444444444445077</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -930,7 +992,7 @@
         <v>0.38</v>
       </c>
       <c r="M13" s="4">
-        <f t="shared" ref="M12:M16" si="2">(I13-K13)/(L13+J13)^2</f>
+        <f t="shared" ref="M13:M15" si="2">(I13-K13)/(L13+J13)^2</f>
         <v>6.9204152249135946</v>
       </c>
     </row>
@@ -1182,7 +1244,7 @@
         <v>0.42</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" ref="M25:M33" si="3">(I25-K25)/(L25+J25)^2</f>
+        <f t="shared" ref="M25:M30" si="3">(I25-K25)/(L25+J25)^2</f>
         <v>1.903628792385444</v>
       </c>
     </row>
@@ -1402,6 +1464,251 @@
       </c>
       <c r="F34" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="19">
+        <v>760.4</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>759.4</v>
+      </c>
+      <c r="F3" s="20">
+        <f>((C3-E3)^2)^(1/2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="19">
+        <v>687.4</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>686.7</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" ref="F4:F14" si="0">((C4-E4)^2)^(1/2)</f>
+        <v>0.69999999999993179</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="19">
+        <v>656.2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>656.3</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="0"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="19">
+        <v>589.5</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>589.6</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.10000000000002274</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>589</v>
+      </c>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>587.6</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="19">
+        <v>527</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>527</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>518.4</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="19">
+        <v>486.2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>486.1</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="0"/>
+        <v>9.9999999999965894E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="19">
+        <v>430.8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
+        <v>430.8</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="19">
+        <v>396.9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>396.8</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>9.9999999999965894E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="22">
+        <v>393.6</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="22">
+        <v>393.4</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>0.20000000000004547</v>
       </c>
     </row>
   </sheetData>

--- a/Praktikum/234 - Lichtquellen/Auswetung.xlsx
+++ b/Praktikum/234 - Lichtquellen/Auswetung.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Peakpos. [nm]</t>
   </si>
@@ -105,18 +104,12 @@
     <t>E_3p [eV]</t>
   </si>
   <si>
-    <t>E_3s [eV]</t>
-  </si>
-  <si>
     <t>E_Ry [eV]</t>
   </si>
   <si>
     <t>-3,0247±0,0014</t>
   </si>
   <si>
-    <t>-5,1282±0,0018</t>
-  </si>
-  <si>
     <t>-13,21±0,26</t>
   </si>
   <si>
@@ -132,64 +125,16 @@
     <t>0,8792±0,0009</t>
   </si>
   <si>
-    <t>Linie</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>λ_lit [nm]</t>
-  </si>
-  <si>
-    <t>Δλ_exp [nm]</t>
-  </si>
-  <si>
-    <t>n.z.</t>
-  </si>
-  <si>
-    <t>Δλ [nm]</t>
+    <t>alter/lit. Wert</t>
+  </si>
+  <si>
+    <t>Wert aus Nebenserie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,7 +150,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -234,27 +185,12 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -268,17 +204,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -374,33 +299,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -681,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P34"/>
+  <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,10 +622,11 @@
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -714,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>330.5</v>
       </c>
@@ -743,14 +672,8 @@
       <c r="M3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>498.4</v>
       </c>
@@ -778,14 +701,8 @@
         <f t="shared" ref="M4" si="1">(I4-K4)/(L4+J4)^2</f>
         <v>4.4444444444445077</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>568.9</v>
       </c>
@@ -808,14 +725,8 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="7"/>
-      <c r="O5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>763.6</v>
       </c>
@@ -827,14 +738,8 @@
         <v>0.46712699015841053</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="O6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>819.5</v>
       </c>
@@ -846,24 +751,12 @@
         <v>1.0616522503600239</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="O7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="O8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -877,14 +770,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="O9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="21"/>
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>330.5</v>
       </c>
@@ -916,8 +805,12 @@
       <c r="M10" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>416.1</v>
       </c>
@@ -940,8 +833,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>420.3</v>
       </c>
@@ -964,8 +859,10 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="21"/>
+      <c r="P12" s="20"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>427.1</v>
       </c>
@@ -995,8 +892,10 @@
         <f t="shared" ref="M13:M15" si="2">(I13-K13)/(L13+J13)^2</f>
         <v>6.9204152249135946</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="21"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>430.2</v>
       </c>
@@ -1026,8 +925,10 @@
         <f t="shared" si="2"/>
         <v>6.3888888888889204</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O14" s="21"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>433.9</v>
       </c>
@@ -1058,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>455.6</v>
       </c>
@@ -1081,8 +982,15 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O16" s="28"/>
+      <c r="P16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>467.1</v>
       </c>
@@ -1094,8 +1002,17 @@
         <v>0.33972872011520766</v>
       </c>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>475.3</v>
       </c>
@@ -1107,8 +1024,15 @@
         <v>0.29726263010080667</v>
       </c>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>493.6</v>
       </c>
@@ -1120,8 +1044,15 @@
         <v>0.25479654008640573</v>
       </c>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="25"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>498.4</v>
       </c>
@@ -1133,8 +1064,15 @@
         <v>0.42466090014400953</v>
       </c>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="25"/>
+    </row>
+    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>515.5</v>
       </c>
@@ -1146,15 +1084,22 @@
         <v>0.3821948101296086</v>
       </c>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
       <c r="H22" t="s">
         <v>9</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>696.7</v>
       </c>
@@ -1217,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>706.9</v>
       </c>
@@ -1248,7 +1193,7 @@
         <v>1.903628792385444</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>738.6</v>
       </c>
@@ -1279,7 +1224,7 @@
         <v>2.7199074074074558</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>751.3</v>
       </c>
@@ -1310,7 +1255,7 @@
         <v>4.4924554183813514</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>763.6</v>
       </c>
@@ -1334,7 +1279,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>772.5</v>
       </c>
@@ -1358,7 +1303,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>811.5</v>
       </c>
@@ -1389,7 +1334,7 @@
         <v>0.23413111342359996</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>819.4</v>
       </c>
@@ -1413,7 +1358,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
       <c r="H32" s="2">
         <v>11</v>
@@ -1464,251 +1409,6 @@
       </c>
       <c r="F34" t="s">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="19">
-        <v>760.4</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
-        <v>759.4</v>
-      </c>
-      <c r="F3" s="20">
-        <f>((C3-E3)^2)^(1/2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="19">
-        <v>687.4</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
-        <v>686.7</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" ref="F4:F14" si="0">((C4-E4)^2)^(1/2)</f>
-        <v>0.69999999999993179</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="19">
-        <v>656.2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>656.3</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" si="0"/>
-        <v>9.9999999999909051E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="19">
-        <v>589.5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19">
-        <v>589.6</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" si="0"/>
-        <v>0.10000000000002274</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>589</v>
-      </c>
-      <c r="F7" s="20"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
-        <v>587.6</v>
-      </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="19">
-        <v>527</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>527</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>518.4</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="19">
-        <v>486.2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>486.1</v>
-      </c>
-      <c r="F11" s="20">
-        <f t="shared" si="0"/>
-        <v>9.9999999999965894E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="19">
-        <v>430.8</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="19">
-        <v>430.8</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="19">
-        <v>396.9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>396.8</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="0"/>
-        <v>9.9999999999965894E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="22">
-        <v>393.6</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="22">
-        <v>393.4</v>
-      </c>
-      <c r="F14" s="23">
-        <f t="shared" si="0"/>
-        <v>0.20000000000004547</v>
       </c>
     </row>
   </sheetData>

--- a/Praktikum/234 - Lichtquellen/Auswetung.xlsx
+++ b/Praktikum/234 - Lichtquellen/Auswetung.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Peakpos. [nm]</t>
   </si>
@@ -128,13 +129,58 @@
     <t>alter/lit. Wert</t>
   </si>
   <si>
-    <t>Wert aus Nebenserie</t>
+    <t>Linie</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>λ_lit [nm]</t>
+  </si>
+  <si>
+    <t>neuer Wert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -317,9 +363,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -329,6 +372,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -609,24 +663,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R34"/>
+  <dimension ref="B1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -636,14 +693,14 @@
       <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>330.5</v>
       </c>
@@ -654,26 +711,26 @@
         <f>C3/(2*(2*LN(2))^(1/2))</f>
         <v>0.42466090014400953</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>498.4</v>
       </c>
@@ -684,25 +741,25 @@
         <f t="shared" ref="D4:D34" si="0">C4/(2*(2*LN(2))^(1/2))</f>
         <v>0.3821948101296086</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="2">
         <v>4</v>
       </c>
+      <c r="H4" s="3">
+        <v>332.1</v>
+      </c>
       <c r="I4" s="3">
-        <v>332.1</v>
+        <v>0.6</v>
       </c>
       <c r="J4" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="K4" s="3">
         <v>330.5</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4">
-        <f t="shared" ref="M4" si="1">(I4-K4)/(L4+J4)^2</f>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4">
+        <f t="shared" ref="L4" si="1">(H4-J4)/(K4+I4)^2</f>
         <v>4.4444444444445077</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>568.9</v>
       </c>
@@ -713,20 +770,20 @@
         <f t="shared" si="0"/>
         <v>0.42466090014400953</v>
       </c>
-      <c r="H5" s="5">
+      <c r="G5" s="5">
         <v>5</v>
       </c>
+      <c r="H5" s="6">
+        <v>286.39999999999998</v>
+      </c>
       <c r="I5" s="6">
-        <v>286.39999999999998</v>
-      </c>
-      <c r="J5" s="6">
         <v>0.2</v>
       </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>763.6</v>
       </c>
@@ -737,9 +794,9 @@
         <f t="shared" si="0"/>
         <v>0.46712699015841053</v>
       </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>819.5</v>
       </c>
@@ -750,13 +807,13 @@
         <f t="shared" si="0"/>
         <v>1.0616522503600239</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -766,14 +823,12 @@
       <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="20"/>
-    </row>
-    <row r="10" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>330.5</v>
       </c>
@@ -784,33 +839,29 @@
         <f t="shared" si="0"/>
         <v>0.42466090014400953</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="H10" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I10" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="20"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>416.1</v>
       </c>
@@ -821,22 +872,20 @@
         <f t="shared" si="0"/>
         <v>0.29726263010080667</v>
       </c>
-      <c r="H11" s="2">
+      <c r="G11" s="2">
         <v>4</v>
       </c>
+      <c r="H11" s="3">
+        <v>1171.7</v>
+      </c>
       <c r="I11" s="3">
-        <v>1171.7</v>
-      </c>
-      <c r="J11" s="3">
         <v>1.8</v>
       </c>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>420.3</v>
       </c>
@@ -847,22 +896,20 @@
         <f t="shared" si="0"/>
         <v>0.3821948101296086</v>
       </c>
-      <c r="H12" s="2">
+      <c r="G12" s="2">
         <v>5</v>
       </c>
+      <c r="H12" s="3">
+        <v>622.20000000000005</v>
+      </c>
       <c r="I12" s="3">
-        <v>622.20000000000005</v>
-      </c>
-      <c r="J12" s="3">
         <v>0.6</v>
       </c>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="20"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>427.1</v>
       </c>
@@ -873,29 +920,27 @@
         <f t="shared" si="0"/>
         <v>0.59452526020161334</v>
       </c>
-      <c r="H13" s="2">
+      <c r="G13" s="2">
         <v>6</v>
       </c>
+      <c r="H13" s="3">
+        <v>518.70000000000005</v>
+      </c>
       <c r="I13" s="3">
-        <v>518.70000000000005</v>
+        <v>0.3</v>
       </c>
       <c r="J13" s="3">
-        <v>0.3</v>
+        <v>515.5</v>
       </c>
       <c r="K13" s="3">
-        <v>515.5</v>
-      </c>
-      <c r="L13" s="3">
         <v>0.38</v>
       </c>
-      <c r="M13" s="4">
-        <f t="shared" ref="M13:M15" si="2">(I13-K13)/(L13+J13)^2</f>
+      <c r="L13" s="4">
+        <f t="shared" ref="L13:L15" si="2">(H13-J13)/(K13+I13)^2</f>
         <v>6.9204152249135946</v>
       </c>
-      <c r="O13" s="21"/>
-      <c r="P13" s="20"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>430.2</v>
       </c>
@@ -906,29 +951,27 @@
         <f t="shared" si="0"/>
         <v>0.29726263010080667</v>
       </c>
-      <c r="H14" s="2">
+      <c r="G14" s="2">
         <v>7</v>
       </c>
+      <c r="H14" s="3">
+        <v>477.6</v>
+      </c>
       <c r="I14" s="3">
-        <v>477.6</v>
+        <v>0.3</v>
       </c>
       <c r="J14" s="3">
+        <v>475.3</v>
+      </c>
+      <c r="K14" s="3">
         <v>0.3</v>
       </c>
-      <c r="K14" s="3">
-        <v>475.3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="L14" s="4">
         <f t="shared" si="2"/>
         <v>6.3888888888889204</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="20"/>
-    </row>
-    <row r="15" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>433.9</v>
       </c>
@@ -939,27 +982,27 @@
         <f t="shared" si="0"/>
         <v>0.42466090014400953</v>
       </c>
-      <c r="H15" s="2">
+      <c r="G15" s="2">
         <v>8</v>
       </c>
+      <c r="H15" s="3">
+        <v>456.6</v>
+      </c>
       <c r="I15" s="3">
-        <v>456.6</v>
+        <v>0.2</v>
       </c>
       <c r="J15" s="3">
-        <v>0.2</v>
+        <v>455.6</v>
       </c>
       <c r="K15" s="3">
-        <v>455.6</v>
-      </c>
-      <c r="L15" s="3">
         <v>0.3</v>
       </c>
-      <c r="M15" s="4">
+      <c r="L15" s="4">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>455.6</v>
       </c>
@@ -970,27 +1013,20 @@
         <f t="shared" si="0"/>
         <v>0.29726263010080667</v>
       </c>
-      <c r="H16" s="5">
+      <c r="G16" s="5">
         <v>9</v>
       </c>
+      <c r="H16" s="6">
+        <v>444.2</v>
+      </c>
       <c r="I16" s="6">
-        <v>444.2</v>
-      </c>
-      <c r="J16" s="6">
         <v>0.2</v>
       </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>467.1</v>
       </c>
@@ -1001,18 +1037,9 @@
         <f t="shared" si="0"/>
         <v>0.33972872011520766</v>
       </c>
-      <c r="M17" s="1"/>
-      <c r="O17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q17" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>475.3</v>
       </c>
@@ -1023,16 +1050,9 @@
         <f t="shared" si="0"/>
         <v>0.29726263010080667</v>
       </c>
-      <c r="M18" s="1"/>
-      <c r="O18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>493.6</v>
       </c>
@@ -1043,16 +1063,9 @@
         <f t="shared" si="0"/>
         <v>0.25479654008640573</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="O19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="25"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>498.4</v>
       </c>
@@ -1063,16 +1076,9 @@
         <f t="shared" si="0"/>
         <v>0.42466090014400953</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="O20" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="25"/>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
         <v>515.5</v>
       </c>
@@ -1083,23 +1089,16 @@
         <f t="shared" si="0"/>
         <v>0.3821948101296086</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="O21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
-      <c r="H22" t="s">
+      <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
@@ -1109,26 +1108,26 @@
       <c r="D23" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="H23" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="I23" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="L23" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>696.7</v>
       </c>
@@ -1139,30 +1138,30 @@
         <f t="shared" si="0"/>
         <v>0.42466090014400953</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="2">
+      <c r="G24" s="2">
         <v>3</v>
       </c>
+      <c r="H24" s="3">
+        <v>819.4</v>
+      </c>
       <c r="I24" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="3">
         <v>819.4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0.8</v>
-      </c>
       <c r="K24" s="3">
-        <v>819.4</v>
-      </c>
-      <c r="L24" s="3">
         <v>1.06</v>
       </c>
-      <c r="M24" s="4">
-        <f>(I24-K24)/(L24+J24)^2</f>
+      <c r="L24" s="4">
+        <f>(H24-J24)/(K24+I24)^2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>706.9</v>
       </c>
@@ -1173,27 +1172,27 @@
         <f t="shared" si="0"/>
         <v>0.46712699015841053</v>
       </c>
-      <c r="H25" s="2">
+      <c r="G25" s="2">
         <v>4</v>
       </c>
+      <c r="H25" s="3">
+        <v>570.17999999999995</v>
+      </c>
       <c r="I25" s="3">
-        <v>570.17999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="J25" s="3">
-        <v>0.4</v>
+        <v>568.9</v>
       </c>
       <c r="K25" s="3">
-        <v>568.9</v>
-      </c>
-      <c r="L25" s="3">
         <v>0.42</v>
       </c>
-      <c r="M25" s="4">
-        <f t="shared" ref="M25:M30" si="3">(I25-K25)/(L25+J25)^2</f>
+      <c r="L25" s="4">
+        <f t="shared" ref="L25:L30" si="3">(H25-J25)/(K25+I25)^2</f>
         <v>1.903628792385444</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>738.6</v>
       </c>
@@ -1204,27 +1203,27 @@
         <f t="shared" si="0"/>
         <v>0.46712699015841053</v>
       </c>
-      <c r="H26" s="2">
+      <c r="G26" s="2">
         <v>5</v>
       </c>
+      <c r="H26" s="3">
+        <v>499.81</v>
+      </c>
       <c r="I26" s="3">
-        <v>499.81</v>
+        <v>0.3</v>
       </c>
       <c r="J26" s="3">
-        <v>0.3</v>
+        <v>498.4</v>
       </c>
       <c r="K26" s="3">
-        <v>498.4</v>
-      </c>
-      <c r="L26" s="3">
         <v>0.42</v>
       </c>
-      <c r="M26" s="4">
+      <c r="L26" s="4">
         <f t="shared" si="3"/>
         <v>2.7199074074074558</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>751.3</v>
       </c>
@@ -1235,27 +1234,27 @@
         <f t="shared" si="0"/>
         <v>0.33972872011520766</v>
       </c>
-      <c r="H27" s="2">
+      <c r="G27" s="2">
         <v>6</v>
       </c>
+      <c r="H27" s="3">
+        <v>468.41</v>
+      </c>
       <c r="I27" s="3">
-        <v>468.41</v>
+        <v>0.2</v>
       </c>
       <c r="J27" s="3">
-        <v>0.2</v>
+        <v>467.1</v>
       </c>
       <c r="K27" s="3">
-        <v>467.1</v>
-      </c>
-      <c r="L27" s="3">
         <v>0.34</v>
       </c>
-      <c r="M27" s="4">
+      <c r="L27" s="4">
         <f t="shared" si="3"/>
         <v>4.4924554183813514</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>763.6</v>
       </c>
@@ -1266,20 +1265,20 @@
         <f t="shared" si="0"/>
         <v>0.84932180028801907</v>
       </c>
-      <c r="H28" s="2">
+      <c r="G28" s="2">
         <v>7</v>
       </c>
+      <c r="H28" s="3">
+        <v>451.32</v>
+      </c>
       <c r="I28" s="3">
-        <v>451.32</v>
-      </c>
-      <c r="J28" s="3">
         <v>0.2</v>
       </c>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>772.5</v>
       </c>
@@ -1290,20 +1289,20 @@
         <f t="shared" si="0"/>
         <v>0.50959308017281146</v>
       </c>
-      <c r="H29" s="2">
+      <c r="G29" s="2">
         <v>8</v>
       </c>
+      <c r="H29" s="3">
+        <v>440.87</v>
+      </c>
       <c r="I29" s="3">
-        <v>440.87</v>
-      </c>
-      <c r="J29" s="3">
         <v>0.2</v>
       </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>811.5</v>
       </c>
@@ -1314,27 +1313,27 @@
         <f t="shared" si="0"/>
         <v>0.72192353024481615</v>
       </c>
-      <c r="H30" s="2">
+      <c r="G30" s="2">
         <v>9</v>
       </c>
+      <c r="H30" s="3">
+        <v>433.99</v>
+      </c>
       <c r="I30" s="3">
-        <v>433.99</v>
+        <v>0.2</v>
       </c>
       <c r="J30" s="3">
-        <v>0.2</v>
+        <v>433.9</v>
       </c>
       <c r="K30" s="3">
-        <v>433.9</v>
-      </c>
-      <c r="L30" s="3">
         <v>0.42</v>
       </c>
-      <c r="M30" s="4">
+      <c r="L30" s="4">
         <f t="shared" si="3"/>
         <v>0.23413111342359996</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="5">
         <v>819.4</v>
       </c>
@@ -1345,35 +1344,35 @@
         <f t="shared" si="0"/>
         <v>0.7643896202592172</v>
       </c>
-      <c r="H31" s="2">
+      <c r="G31" s="2">
         <v>10</v>
       </c>
+      <c r="H31" s="3">
+        <v>429.19</v>
+      </c>
       <c r="I31" s="3">
-        <v>429.19</v>
-      </c>
-      <c r="J31" s="3">
         <v>0.2</v>
       </c>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
-      <c r="H32" s="2">
+      <c r="G32" s="2">
         <v>11</v>
       </c>
+      <c r="H32" s="3">
+        <v>425.71</v>
+      </c>
       <c r="I32" s="3">
-        <v>425.71</v>
-      </c>
-      <c r="J32" s="3">
         <v>0.2</v>
       </c>
+      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1383,20 +1382,20 @@
       <c r="D33" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="5">
+      <c r="G33" s="5">
         <v>12</v>
       </c>
+      <c r="H33" s="6">
+        <v>423.1</v>
+      </c>
       <c r="I33" s="6">
-        <v>423.1</v>
-      </c>
-      <c r="J33" s="6">
         <v>0.2</v>
       </c>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="7"/>
-    </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5">
         <v>589.4</v>
       </c>
@@ -1407,12 +1406,306 @@
         <f t="shared" si="0"/>
         <v>0.29726263010080667</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="25"/>
+      <c r="C3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="18"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="26">
+        <v>760.4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="27">
+        <v>759.4</v>
+      </c>
+      <c r="F12" s="22">
+        <f>(C12-E12)/D12^(1/2)</f>
+        <v>0.70710678118654746</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="26">
+        <v>687.4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="27">
+        <v>686.7</v>
+      </c>
+      <c r="F13" s="22">
+        <f>(C13-E13)/D13^(1/2)</f>
+        <v>0.494974746830535</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="26">
+        <v>656.2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="27">
+        <v>656.3</v>
+      </c>
+      <c r="F14" s="22">
+        <f>-(C14-E14)/D14^(1/2)</f>
+        <v>7.0710678118590442E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="29">
+        <v>589.5</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>589.6</v>
+      </c>
+      <c r="F15" s="22">
+        <f>-(C15-E15)/D15^(1/2)</f>
+        <v>7.0710678118670822E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="27">
+        <v>589</v>
+      </c>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="27">
+        <v>587.6</v>
+      </c>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="30">
+        <v>527</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="27">
+        <v>527</v>
+      </c>
+      <c r="F18" s="22">
+        <f>(C18-E18)/D18^(1/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="27">
+        <v>518.4</v>
+      </c>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="29">
+        <v>486.2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="27">
+        <v>486.1</v>
+      </c>
+      <c r="F20" s="22">
+        <f>(C20-E20)/D20^(1/2)</f>
+        <v>7.0710678118630632E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="29">
+        <v>430.8</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="27">
+        <v>430.8</v>
+      </c>
+      <c r="F21" s="22">
+        <f>(C21-E21)/D21^(1/2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="29">
+        <v>396.9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="27">
+        <v>396.8</v>
+      </c>
+      <c r="F22" s="22">
+        <f>(C22-E22)/D22^(1/2)</f>
+        <v>7.0710678118630632E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="32">
+        <v>393.6</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="33">
+        <v>393.4</v>
+      </c>
+      <c r="F23" s="34">
+        <f>(C23-E23)/D23^(1/2)</f>
+        <v>0.14142135623734164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Praktikum/234 - Lichtquellen/Auswetung.xlsx
+++ b/Praktikum/234 - Lichtquellen/Auswetung.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thorben Frey\Heidelberg\PAP\PAP2.1\Praktikum\Praktikum\Praktikum\234 - Lichtquellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quirinus\Documents\GitHub\Praktikum\Praktikum\234 - Lichtquellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Peakpos. [nm]</t>
   </si>
@@ -99,31 +99,16 @@
     <t>Δp</t>
   </si>
   <si>
-    <t>Δd</t>
-  </si>
-  <si>
     <t>E_3p [eV]</t>
   </si>
   <si>
     <t>E_3s [eV]</t>
   </si>
   <si>
-    <t>E_Ry [eV]</t>
-  </si>
-  <si>
     <t>-3,0247±0,0014</t>
   </si>
   <si>
     <t>-5,1282±0,0018</t>
-  </si>
-  <si>
-    <t>-13,21±0,26</t>
-  </si>
-  <si>
-    <t>-3,025±0,005</t>
-  </si>
-  <si>
-    <t>0,044±0,025</t>
   </si>
   <si>
     <t>1,3699±0,0006</t>
@@ -186,7 +171,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -374,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -401,6 +386,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -680,24 +667,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -714,7 +701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>330.5</v>
       </c>
@@ -744,13 +731,13 @@
         <v>6</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>498.4</v>
       </c>
@@ -779,13 +766,13 @@
         <v>4.4444444444445077</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>568.9</v>
       </c>
@@ -812,10 +799,10 @@
         <v>16</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <v>763.6</v>
       </c>
@@ -827,14 +814,14 @@
         <v>0.46712699015841053</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>819.5</v>
       </c>
@@ -846,24 +833,16 @@
         <v>1.0616522503600239</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="O7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="24"/>
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="O8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P8" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -877,14 +856,10 @@
         <v>14</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="O9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>330.5</v>
       </c>
@@ -917,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>416.1</v>
       </c>
@@ -941,7 +916,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>420.3</v>
       </c>
@@ -965,7 +940,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>427.1</v>
       </c>
@@ -996,7 +971,7 @@
         <v>6.9204152249135946</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>430.2</v>
       </c>
@@ -1027,7 +1002,7 @@
         <v>6.3888888888889204</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>433.9</v>
       </c>
@@ -1058,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>455.6</v>
       </c>
@@ -1082,7 +1057,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>467.1</v>
       </c>
@@ -1095,7 +1070,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>475.3</v>
       </c>
@@ -1108,7 +1083,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>493.6</v>
       </c>
@@ -1121,7 +1096,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>498.4</v>
       </c>
@@ -1134,7 +1109,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>515.5</v>
       </c>
@@ -1147,14 +1122,14 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="1"/>
       <c r="H22" t="s">
         <v>9</v>
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>696.7</v>
       </c>
@@ -1217,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>706.9</v>
       </c>
@@ -1248,7 +1223,7 @@
         <v>1.903628792385444</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>738.6</v>
       </c>
@@ -1279,7 +1254,7 @@
         <v>2.7199074074074558</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>751.3</v>
       </c>
@@ -1310,7 +1285,7 @@
         <v>4.4924554183813514</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>763.6</v>
       </c>
@@ -1334,7 +1309,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>772.5</v>
       </c>
@@ -1358,7 +1333,7 @@
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>811.5</v>
       </c>
@@ -1389,7 +1364,7 @@
         <v>0.23413111342359996</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>819.4</v>
       </c>
@@ -1413,7 +1388,7 @@
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
       <c r="H32" s="2">
         <v>11</v>
@@ -1428,7 +1403,7 @@
       <c r="L32" s="3"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1426,7 @@
       <c r="L33" s="6"/>
       <c r="M33" s="7"/>
     </row>
-    <row r="34" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="5">
         <v>589.4</v>
       </c>
@@ -1473,40 +1448,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" s="19">
         <v>760.4</v>
@@ -1522,9 +1497,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C4" s="19">
         <v>687.4</v>
@@ -1540,9 +1515,9 @@
         <v>0.69999999999993179</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="19">
         <v>656.2</v>
@@ -1558,9 +1533,9 @@
         <v>9.9999999999909051E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" s="19">
         <v>589.5</v>
@@ -1576,12 +1551,12 @@
         <v>0.10000000000002274</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -1591,12 +1566,12 @@
       </c>
       <c r="F7" s="20"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1606,9 +1581,9 @@
       </c>
       <c r="F8" s="20"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="19">
         <v>527</v>
@@ -1624,12 +1599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -1639,9 +1614,9 @@
       </c>
       <c r="F10" s="20"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" s="19">
         <v>486.2</v>
@@ -1657,9 +1632,9 @@
         <v>9.9999999999965894E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" s="19">
         <v>430.8</v>
@@ -1675,9 +1650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="19">
         <v>396.9</v>
@@ -1693,9 +1668,9 @@
         <v>9.9999999999965894E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" s="22">
         <v>393.6</v>
